--- a/Exel/Lab11.xlsx
+++ b/Exel/Lab11.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Титульник" sheetId="2" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="8">
   <si>
     <t>Гайдарь Максим. 221-373.</t>
   </si>
@@ -44,6 +44,9 @@
   </si>
   <si>
     <t>Лабораторная работа №11. Вариант 6.</t>
+  </si>
+  <si>
+    <t>А</t>
   </si>
 </sst>
 </file>
@@ -52,9 +55,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _₽_-;\-* #,##0.00\ _₽_-;_-* &quot;-&quot;??\ _₽_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;₽&quot;"/>
+    <numFmt numFmtId="165" formatCode="#,##0.0\ &quot;₽&quot;"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -97,6 +100,16 @@
       <color rgb="FFFFC000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -169,25 +182,19 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Финансовый" xfId="1" builtinId="3"/>
   </cellStyles>
   <dxfs count="3">
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -204,7 +211,13 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;₽&quot;"/>
+      <numFmt numFmtId="165" formatCode="#,##0.0\ &quot;₽&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -223,12 +236,12 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Таблица2" displayName="Таблица2" ref="A1:D2" totalsRowShown="0">
   <autoFilter ref="A1:D2"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="Начислено" dataDxfId="2" dataCellStyle="Финансовый"/>
+    <tableColumn id="1" name="Начислено" dataDxfId="0" dataCellStyle="Финансовый"/>
     <tableColumn id="2" name="Удержано"/>
-    <tableColumn id="3" name="Доход" dataDxfId="1">
+    <tableColumn id="3" name="Доход" dataDxfId="2">
       <calculatedColumnFormula>B2-5/2.3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="Выплачено" dataDxfId="0"/>
+    <tableColumn id="4" name="Выплачено" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight19" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -499,19 +512,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="87" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" ht="33.5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" ht="33.5" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -523,25 +536,25 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.5703125" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" customWidth="1"/>
+    <col min="1" max="1" width="13.54296875" customWidth="1"/>
+    <col min="2" max="2" width="12.453125" customWidth="1"/>
     <col min="3" max="3" width="9" customWidth="1"/>
-    <col min="4" max="4" width="13.5703125" customWidth="1"/>
-    <col min="6" max="6" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.54296875" customWidth="1"/>
+    <col min="6" max="6" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.81640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -554,32 +567,35 @@
       <c r="D1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="10"/>
-      <c r="F1" s="9" t="s">
+      <c r="E1" s="8"/>
+      <c r="F1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="H1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I1" s="11" t="s">
         <v>4</v>
       </c>
+      <c r="J1" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="11">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A2" s="12">
         <v>5678.34</v>
       </c>
       <c r="B2">
         <v>0.5</v>
       </c>
-      <c r="C2" s="12">
+      <c r="C2" s="9">
         <f>B2-5/2.3</f>
         <v>-1.6739130434782612</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="9" t="s">
         <v>5</v>
       </c>
       <c r="F2" t="s">
@@ -598,7 +614,7 @@
   </sheetData>
   <printOptions horizontalCentered="1" verticalCentered="1" gridLines="1"/>
   <pageMargins left="0.98425196850393704" right="0.39370078740157483" top="1.7716535433070868" bottom="1.2598425196850394" header="0.19685039370078741" footer="0.19685039370078741"/>
-  <pageSetup paperSize="8" scale="168" firstPageNumber="0" pageOrder="overThenDown" orientation="landscape" useFirstPageNumber="1" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="8" scale="168" firstPageNumber="0" pageOrder="overThenDown" orientation="landscape" useFirstPageNumber="1" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;L&amp;F&amp;C&amp;T&amp;R&amp;P</oddFooter>
   </headerFooter>
